--- a/Vivienda/28.4.xlsx
+++ b/Vivienda/28.4.xlsx
@@ -5,28 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Vivienda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Vivienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465A95E4-86CE-4086-A752-EC0796C2F255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01827A46-ABBF-4C59-A1E2-1E3B67F2BC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superficie " sheetId="1" r:id="rId1"/>
     <sheet name="Tabla auxiliar" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="151">
   <si>
     <t>Codreg</t>
   </si>
@@ -476,6 +485,9 @@
   </si>
   <si>
     <t>Proporción de Sitio Eriazo sobre Superficie Urbana</t>
+  </si>
+  <si>
+    <t>Unidad</t>
   </si>
 </sst>
 </file>
@@ -605,9 +617,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tipo_Superficie_Comuna" displayName="Tipo_Superficie_Comuna" ref="A1:I352" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:I352" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tipo_Superficie_Comuna" displayName="Tipo_Superficie_Comuna" ref="A1:J352" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:J352" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codreg"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Codprov"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Codcom"/>
@@ -616,6 +628,7 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Año"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ID Tipo de Superficie"/>
     <tableColumn id="9" xr3:uid="{CE529B8C-C9C7-4EF0-96A0-D4A9FE68BE61}" name="Tipo de Superficie"/>
+    <tableColumn id="10" xr3:uid="{5495903A-2D61-4E9C-A8DC-31A6C2393C09}" name="Unidad"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Valor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -907,19 +920,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I352"/>
+  <dimension ref="A1:J352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="11.42578125" style="6"/>
-    <col min="9" max="9" width="11.42578125" style="7"/>
+    <col min="8" max="9" width="11.42578125" style="6"/>
+    <col min="10" max="10" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,11 +957,14 @@
       <c r="H1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -973,11 +989,11 @@
       <c r="H2" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="9">
+      <c r="J2" s="9">
         <v>20940322.530000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1002,11 +1018,11 @@
       <c r="H3" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I3" s="9">
+      <c r="J3" s="9">
         <v>25214806.23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1031,11 +1047,11 @@
       <c r="H4" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="9">
         <v>61473355.409999996</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1060,11 +1076,11 @@
       <c r="H5" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="9">
         <v>34377071.359999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1089,11 +1105,11 @@
       <c r="H6" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="9">
         <v>34298817.829999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1118,11 +1134,11 @@
       <c r="H7" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="9">
         <v>3921642.923</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1147,11 +1163,11 @@
       <c r="H8" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="9">
         <v>12612842.74</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1176,11 +1192,11 @@
       <c r="H9" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I9" s="9">
+      <c r="J9" s="9">
         <v>55201048.829999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -1205,11 +1221,11 @@
       <c r="H10" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="9">
+      <c r="J10" s="9">
         <v>63022129.920000002</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -1234,11 +1250,11 @@
       <c r="H11" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="9">
         <v>21363037.760000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -1263,11 +1279,11 @@
       <c r="H12" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="9">
+      <c r="J12" s="9">
         <v>77582178.760000005</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>5</v>
       </c>
@@ -1292,11 +1308,11 @@
       <c r="H13" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I13" s="9">
+      <c r="J13" s="9">
         <v>8484171.5539999995</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -1321,11 +1337,11 @@
       <c r="H14" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I14" s="9">
+      <c r="J14" s="9">
         <v>20447247.829999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5</v>
       </c>
@@ -1350,11 +1366,11 @@
       <c r="H15" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I15" s="9">
+      <c r="J15" s="9">
         <v>27576741.77</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -1379,11 +1395,11 @@
       <c r="H16" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I16" s="9">
+      <c r="J16" s="9">
         <v>12384241.66</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -1408,11 +1424,11 @@
       <c r="H17" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="9">
+      <c r="J17" s="9">
         <v>120572843.90000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>5</v>
       </c>
@@ -1437,11 +1453,11 @@
       <c r="H18" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I18" s="9">
+      <c r="J18" s="9">
         <v>12584498.449999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -1466,11 +1482,11 @@
       <c r="H19" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I19" s="9">
+      <c r="J19" s="9">
         <v>3752512.9840000002</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5</v>
       </c>
@@ -1495,11 +1511,11 @@
       <c r="H20" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I20" s="9">
+      <c r="J20" s="9">
         <v>16454044.109999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -1524,11 +1540,11 @@
       <c r="H21" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I21" s="9">
+      <c r="J21" s="9">
         <v>13926807.51</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5</v>
       </c>
@@ -1553,11 +1569,11 @@
       <c r="H22" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I22" s="9">
+      <c r="J22" s="9">
         <v>10415011.279999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>5</v>
       </c>
@@ -1582,11 +1598,11 @@
       <c r="H23" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I23" s="9">
+      <c r="J23" s="9">
         <v>9340703.4399999995</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>5</v>
       </c>
@@ -1611,11 +1627,11 @@
       <c r="H24" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I24" s="9">
+      <c r="J24" s="9">
         <v>22331677.710000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>5</v>
       </c>
@@ -1640,11 +1656,11 @@
       <c r="H25" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I25" s="9">
+      <c r="J25" s="9">
         <v>11546494.24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -1669,11 +1685,11 @@
       <c r="H26" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I26" s="9">
+      <c r="J26" s="9">
         <v>8687583.1449999996</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>5</v>
       </c>
@@ -1698,11 +1714,11 @@
       <c r="H27" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I27" s="9">
+      <c r="J27" s="9">
         <v>19377157.43</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -1727,11 +1743,11 @@
       <c r="H28" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I28" s="9">
+      <c r="J28" s="9">
         <v>39530104.100000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>5</v>
       </c>
@@ -1756,11 +1772,11 @@
       <c r="H29" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I29" s="9">
+      <c r="J29" s="9">
         <v>17060632.600000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5</v>
       </c>
@@ -1785,11 +1801,11 @@
       <c r="H30" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I30" s="9">
+      <c r="J30" s="9">
         <v>14384686</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>5</v>
       </c>
@@ -1814,11 +1830,11 @@
       <c r="H31" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I31" s="9">
+      <c r="J31" s="9">
         <v>28540966.120000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>6</v>
       </c>
@@ -1843,11 +1859,11 @@
       <c r="H32" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I32" s="9">
+      <c r="J32" s="9">
         <v>53612595.93</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>6</v>
       </c>
@@ -1872,11 +1888,11 @@
       <c r="H33" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I33" s="9">
+      <c r="J33" s="9">
         <v>32699921.760000002</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>6</v>
       </c>
@@ -1901,11 +1917,11 @@
       <c r="H34" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I34" s="9">
+      <c r="J34" s="9">
         <v>14539738.699999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>6</v>
       </c>
@@ -1930,11 +1946,11 @@
       <c r="H35" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I35" s="9">
+      <c r="J35" s="9">
         <v>17639897.190000001</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>7</v>
       </c>
@@ -1959,11 +1975,11 @@
       <c r="H36" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I36" s="9">
+      <c r="J36" s="9">
         <v>53316706.920000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>7</v>
       </c>
@@ -1988,11 +2004,11 @@
       <c r="H37" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I37" s="9">
+      <c r="J37" s="9">
         <v>13754722.939999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>7</v>
       </c>
@@ -2017,11 +2033,11 @@
       <c r="H38" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I38" s="9">
+      <c r="J38" s="9">
         <v>10164080.48</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>7</v>
       </c>
@@ -2046,11 +2062,11 @@
       <c r="H39" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I39" s="9">
+      <c r="J39" s="9">
         <v>38954915.039999999</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>7</v>
       </c>
@@ -2075,11 +2091,11 @@
       <c r="H40" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I40" s="9">
+      <c r="J40" s="9">
         <v>3500391.9109999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>7</v>
       </c>
@@ -2104,11 +2120,11 @@
       <c r="H41" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I41" s="9">
+      <c r="J41" s="9">
         <v>2671067.3790000002</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>7</v>
       </c>
@@ -2133,11 +2149,11 @@
       <c r="H42" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I42" s="9">
+      <c r="J42" s="9">
         <v>20565018.640000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>8</v>
       </c>
@@ -2162,11 +2178,11 @@
       <c r="H43" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I43" s="9">
+      <c r="J43" s="9">
         <v>42583870.420000002</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>8</v>
       </c>
@@ -2191,11 +2207,11 @@
       <c r="H44" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I44" s="9">
+      <c r="J44" s="9">
         <v>41068967.609999999</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>8</v>
       </c>
@@ -2220,11 +2236,11 @@
       <c r="H45" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I45" s="9">
+      <c r="J45" s="9">
         <v>18369050.059999999</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>8</v>
       </c>
@@ -2249,11 +2265,11 @@
       <c r="H46" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I46" s="9">
+      <c r="J46" s="9">
         <v>10364138.34</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>8</v>
       </c>
@@ -2278,11 +2294,11 @@
       <c r="H47" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I47" s="9">
+      <c r="J47" s="9">
         <v>9664363.3460000008</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>8</v>
       </c>
@@ -2307,11 +2323,11 @@
       <c r="H48" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I48" s="9">
+      <c r="J48" s="9">
         <v>13815966.59</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>8</v>
       </c>
@@ -2336,11 +2352,11 @@
       <c r="H49" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I49" s="9">
+      <c r="J49" s="9">
         <v>40084618.579999998</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>8</v>
       </c>
@@ -2365,11 +2381,11 @@
       <c r="H50" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I50" s="9">
+      <c r="J50" s="9">
         <v>5655558.7050000001</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>8</v>
       </c>
@@ -2394,11 +2410,11 @@
       <c r="H51" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I51" s="9">
+      <c r="J51" s="9">
         <v>47866531.32</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>8</v>
       </c>
@@ -2423,11 +2439,11 @@
       <c r="H52" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I52" s="9">
+      <c r="J52" s="9">
         <v>17881956.300000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>8</v>
       </c>
@@ -2452,11 +2468,11 @@
       <c r="H53" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I53" s="9">
+      <c r="J53" s="9">
         <v>16585681.17</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>8</v>
       </c>
@@ -2481,11 +2497,11 @@
       <c r="H54" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I54" s="9">
+      <c r="J54" s="9">
         <v>37727623.619999997</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>8</v>
       </c>
@@ -2510,11 +2526,11 @@
       <c r="H55" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I55" s="9">
+      <c r="J55" s="9">
         <v>9211159.3200000003</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>9</v>
       </c>
@@ -2539,11 +2555,11 @@
       <c r="H56" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I56" s="9">
+      <c r="J56" s="9">
         <v>54387490.5</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>9</v>
       </c>
@@ -2568,11 +2584,11 @@
       <c r="H57" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I57" s="9">
+      <c r="J57" s="9">
         <v>6911408.6030000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>9</v>
       </c>
@@ -2597,11 +2613,11 @@
       <c r="H58" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I58" s="9">
+      <c r="J58" s="9">
         <v>12104146.1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>9</v>
       </c>
@@ -2626,11 +2642,11 @@
       <c r="H59" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I59" s="9">
+      <c r="J59" s="9">
         <v>15519460.26</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>10</v>
       </c>
@@ -2655,11 +2671,11 @@
       <c r="H60" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I60" s="9">
+      <c r="J60" s="9">
         <v>67568036.269999996</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>10</v>
       </c>
@@ -2684,11 +2700,11 @@
       <c r="H61" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I61" s="9">
+      <c r="J61" s="9">
         <v>7544511.835</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>10</v>
       </c>
@@ -2713,11 +2729,11 @@
       <c r="H62" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I62" s="9">
+      <c r="J62" s="9">
         <v>14244028.449999999</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>10</v>
       </c>
@@ -2742,11 +2758,11 @@
       <c r="H63" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I63" s="9">
+      <c r="J63" s="9">
         <v>32358957.48</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>11</v>
       </c>
@@ -2771,11 +2787,11 @@
       <c r="H64" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I64" s="9">
+      <c r="J64" s="9">
         <v>13266048.199999999</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>12</v>
       </c>
@@ -2800,11 +2816,11 @@
       <c r="H65" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I65" s="9">
+      <c r="J65" s="9">
         <v>37615069.030000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>13</v>
       </c>
@@ -2829,11 +2845,11 @@
       <c r="H66" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I66" s="9">
+      <c r="J66" s="9">
         <v>23135236.219999999</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>13</v>
       </c>
@@ -2858,11 +2874,11 @@
       <c r="H67" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I67" s="9">
+      <c r="J67" s="9">
         <v>16779649.600000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>13</v>
       </c>
@@ -2887,11 +2903,11 @@
       <c r="H68" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I68" s="9">
+      <c r="J68" s="9">
         <v>11097359.02</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>13</v>
       </c>
@@ -2916,11 +2932,11 @@
       <c r="H69" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I69" s="9">
+      <c r="J69" s="9">
         <v>11109763.109999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>13</v>
       </c>
@@ -2945,11 +2961,11 @@
       <c r="H70" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I70" s="9">
+      <c r="J70" s="9">
         <v>14324401.92</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>13</v>
       </c>
@@ -2974,11 +2990,11 @@
       <c r="H71" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I71" s="9">
+      <c r="J71" s="9">
         <v>14353261.029999999</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>13</v>
       </c>
@@ -3003,11 +3019,11 @@
       <c r="H72" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I72" s="9">
+      <c r="J72" s="9">
         <v>21965373.829999998</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>13</v>
       </c>
@@ -3032,11 +3048,11 @@
       <c r="H73" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I73" s="9">
+      <c r="J73" s="9">
         <v>7355459.9610000001</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>13</v>
       </c>
@@ -3061,11 +3077,11 @@
       <c r="H74" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I74" s="9">
+      <c r="J74" s="9">
         <v>9979139.2100000009</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>13</v>
       </c>
@@ -3090,11 +3106,11 @@
       <c r="H75" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I75" s="9">
+      <c r="J75" s="9">
         <v>42377221.68</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>13</v>
       </c>
@@ -3119,11 +3135,11 @@
       <c r="H76" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I76" s="9">
+      <c r="J76" s="9">
         <v>10089198.949999999</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>13</v>
       </c>
@@ -3148,11 +3164,11 @@
       <c r="H77" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I77" s="9">
+      <c r="J77" s="9">
         <v>30451340.170000002</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>13</v>
       </c>
@@ -3177,11 +3193,11 @@
       <c r="H78" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I78" s="9">
+      <c r="J78" s="9">
         <v>20433673.530000001</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>13</v>
       </c>
@@ -3206,11 +3222,11 @@
       <c r="H79" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I79" s="9">
+      <c r="J79" s="9">
         <v>45247970.280000001</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>13</v>
       </c>
@@ -3235,11 +3251,11 @@
       <c r="H80" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I80" s="9">
+      <c r="J80" s="9">
         <v>49512603.189999998</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>13</v>
       </c>
@@ -3264,11 +3280,11 @@
       <c r="H81" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I81" s="9">
+      <c r="J81" s="9">
         <v>8238357.3119999999</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>13</v>
       </c>
@@ -3293,11 +3309,11 @@
       <c r="H82" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I82" s="9">
+      <c r="J82" s="9">
         <v>6560048.0690000001</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>13</v>
       </c>
@@ -3322,11 +3338,11 @@
       <c r="H83" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I83" s="9">
+      <c r="J83" s="9">
         <v>12842275.210000001</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>13</v>
       </c>
@@ -3351,11 +3367,11 @@
       <c r="H84" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I84" s="9">
+      <c r="J84" s="9">
         <v>57579751.43</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>13</v>
       </c>
@@ -3380,11 +3396,11 @@
       <c r="H85" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I85" s="9">
+      <c r="J85" s="9">
         <v>16856801.190000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>13</v>
       </c>
@@ -3409,11 +3425,11 @@
       <c r="H86" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I86" s="9">
+      <c r="J86" s="9">
         <v>8755927.5789999999</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>13</v>
       </c>
@@ -3438,11 +3454,11 @@
       <c r="H87" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I87" s="9">
+      <c r="J87" s="9">
         <v>35116446.740000002</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>13</v>
       </c>
@@ -3467,11 +3483,11 @@
       <c r="H88" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I88" s="9">
+      <c r="J88" s="9">
         <v>14394146.42</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>13</v>
       </c>
@@ -3496,11 +3512,11 @@
       <c r="H89" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I89" s="9">
+      <c r="J89" s="9">
         <v>21341124.210000001</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>13</v>
       </c>
@@ -3525,11 +3541,11 @@
       <c r="H90" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I90" s="9">
+      <c r="J90" s="9">
         <v>41492560.420000002</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>13</v>
       </c>
@@ -3554,11 +3570,11 @@
       <c r="H91" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I91" s="9">
+      <c r="J91" s="9">
         <v>11817300.890000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>13</v>
       </c>
@@ -3583,11 +3599,11 @@
       <c r="H92" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I92" s="9">
+      <c r="J92" s="9">
         <v>15784667.16</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>13</v>
       </c>
@@ -3612,11 +3628,11 @@
       <c r="H93" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I93" s="9">
+      <c r="J93" s="9">
         <v>23755442.25</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>13</v>
       </c>
@@ -3641,11 +3657,11 @@
       <c r="H94" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I94" s="9">
+      <c r="J94" s="9">
         <v>9942261.2709999997</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>13</v>
       </c>
@@ -3670,11 +3686,11 @@
       <c r="H95" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I95" s="9">
+      <c r="J95" s="9">
         <v>9613154.0620000008</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>13</v>
       </c>
@@ -3699,11 +3715,11 @@
       <c r="H96" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I96" s="9">
+      <c r="J96" s="9">
         <v>6277111.6279999996</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>13</v>
       </c>
@@ -3728,11 +3744,11 @@
       <c r="H97" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I97" s="9">
+      <c r="J97" s="9">
         <v>28417033.989999998</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>13</v>
       </c>
@@ -3757,11 +3773,11 @@
       <c r="H98" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I98" s="9">
+      <c r="J98" s="9">
         <v>75854584.879999995</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>13</v>
       </c>
@@ -3786,11 +3802,11 @@
       <c r="H99" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I99" s="9">
+      <c r="J99" s="9">
         <v>8949415.1239999998</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>13</v>
       </c>
@@ -3815,11 +3831,11 @@
       <c r="H100" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I100" s="9">
+      <c r="J100" s="9">
         <v>9690849.898</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>13</v>
       </c>
@@ -3844,11 +3860,11 @@
       <c r="H101" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I101" s="9">
+      <c r="J101" s="9">
         <v>32755215.579999998</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>13</v>
       </c>
@@ -3873,11 +3889,11 @@
       <c r="H102" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I102" s="9">
+      <c r="J102" s="9">
         <v>28840602.539999999</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>13</v>
       </c>
@@ -3902,11 +3918,11 @@
       <c r="H103" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I103" s="9">
+      <c r="J103" s="9">
         <v>6701765.1979999999</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>13</v>
       </c>
@@ -3931,11 +3947,11 @@
       <c r="H104" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I104" s="9">
+      <c r="J104" s="9">
         <v>56284947.079999998</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>13</v>
       </c>
@@ -3960,11 +3976,11 @@
       <c r="H105" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I105" s="9">
+      <c r="J105" s="9">
         <v>24261304.16</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>13</v>
       </c>
@@ -3989,11 +4005,11 @@
       <c r="H106" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I106" s="9">
+      <c r="J106" s="9">
         <v>3350627.0469999998</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>13</v>
       </c>
@@ -4018,11 +4034,11 @@
       <c r="H107" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I107" s="9">
+      <c r="J107" s="9">
         <v>16346519.619999999</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>13</v>
       </c>
@@ -4047,11 +4063,11 @@
       <c r="H108" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I108" s="9">
+      <c r="J108" s="9">
         <v>21193638.719999999</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>13</v>
       </c>
@@ -4076,11 +4092,11 @@
       <c r="H109" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I109" s="9">
+      <c r="J109" s="9">
         <v>10791030.039999999</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>13</v>
       </c>
@@ -4105,11 +4121,11 @@
       <c r="H110" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I110" s="9">
+      <c r="J110" s="9">
         <v>12987533.529999999</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>13</v>
       </c>
@@ -4134,11 +4150,11 @@
       <c r="H111" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I111" s="9">
+      <c r="J111" s="9">
         <v>11018408.27</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>13</v>
       </c>
@@ -4163,11 +4179,11 @@
       <c r="H112" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I112" s="9">
+      <c r="J112" s="9">
         <v>12970767.27</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>13</v>
       </c>
@@ -4192,11 +4208,11 @@
       <c r="H113" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I113" s="9">
+      <c r="J113" s="9">
         <v>12999229.98</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>14</v>
       </c>
@@ -4221,11 +4237,11 @@
       <c r="H114" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I114" s="9">
+      <c r="J114" s="9">
         <v>50125797.170000002</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>15</v>
       </c>
@@ -4250,11 +4266,11 @@
       <c r="H115" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I115" s="9">
+      <c r="J115" s="9">
         <v>43839390.609999999</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>16</v>
       </c>
@@ -4279,11 +4295,11 @@
       <c r="H116" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I116" s="9">
+      <c r="J116" s="9">
         <v>44682737.549999997</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>16</v>
       </c>
@@ -4308,11 +4324,11 @@
       <c r="H117" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I117" s="9">
+      <c r="J117" s="9">
         <v>9098312.5240000002</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>16</v>
       </c>
@@ -4337,11 +4353,11 @@
       <c r="H118" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I118" s="9">
+      <c r="J118" s="9">
         <v>10348637.310000001</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4366,11 +4382,11 @@
       <c r="H119" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I119" s="6">
+      <c r="J119" s="6">
         <v>2650346</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -4395,11 +4411,11 @@
       <c r="H120" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I120" s="6">
+      <c r="J120" s="6">
         <v>10180016</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -4424,11 +4440,11 @@
       <c r="H121" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I121" s="6">
+      <c r="J121" s="6">
         <v>23383388</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2</v>
       </c>
@@ -4453,11 +4469,11 @@
       <c r="H122" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I122" s="6">
+      <c r="J122" s="6">
         <v>8355463</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -4482,11 +4498,11 @@
       <c r="H123" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I123" s="6">
+      <c r="J123" s="6">
         <v>4806637</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -4511,11 +4527,11 @@
       <c r="H124" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I124" s="6">
+      <c r="J124" s="6">
         <v>256721</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3</v>
       </c>
@@ -4540,11 +4556,11 @@
       <c r="H125" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I125" s="6">
+      <c r="J125" s="6">
         <v>793637</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4</v>
       </c>
@@ -4569,11 +4585,11 @@
       <c r="H126" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I126" s="6">
+      <c r="J126" s="6">
         <v>2988559</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -4598,11 +4614,11 @@
       <c r="H127" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I127" s="6">
+      <c r="J127" s="6">
         <v>8851774</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4</v>
       </c>
@@ -4627,11 +4643,11 @@
       <c r="H128" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I128" s="6">
+      <c r="J128" s="6">
         <v>1828060</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
@@ -4656,11 +4672,11 @@
       <c r="H129" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I129" s="6">
+      <c r="J129" s="6">
         <v>9517933</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5</v>
       </c>
@@ -4685,11 +4701,11 @@
       <c r="H130" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I130" s="6">
+      <c r="J130" s="6">
         <v>390221</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5</v>
       </c>
@@ -4714,11 +4730,11 @@
       <c r="H131" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I131" s="6">
+      <c r="J131" s="6">
         <v>2314644</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5</v>
       </c>
@@ -4743,11 +4759,11 @@
       <c r="H132" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I132" s="6">
+      <c r="J132" s="6">
         <v>676782</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5</v>
       </c>
@@ -4772,11 +4788,11 @@
       <c r="H133" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I133" s="6">
+      <c r="J133" s="6">
         <v>1193897</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>5</v>
       </c>
@@ -4801,11 +4817,11 @@
       <c r="H134" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I134" s="6">
+      <c r="J134" s="6">
         <v>8988115</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>5</v>
       </c>
@@ -4830,11 +4846,11 @@
       <c r="H135" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I135" s="6">
+      <c r="J135" s="6">
         <v>1184462</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>5</v>
       </c>
@@ -4859,11 +4875,11 @@
       <c r="H136" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I136" s="6">
+      <c r="J136" s="6">
         <v>355902</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>5</v>
       </c>
@@ -4888,11 +4904,11 @@
       <c r="H137" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I137" s="6">
+      <c r="J137" s="6">
         <v>1219081</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>5</v>
       </c>
@@ -4917,11 +4933,11 @@
       <c r="H138" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I138" s="6">
+      <c r="J138" s="6">
         <v>1077311</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>5</v>
       </c>
@@ -4946,11 +4962,11 @@
       <c r="H139" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I139" s="6">
+      <c r="J139" s="6">
         <v>159493</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>5</v>
       </c>
@@ -4975,11 +4991,11 @@
       <c r="H140" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I140" s="6">
+      <c r="J140" s="6">
         <v>470345</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>5</v>
       </c>
@@ -5004,11 +5020,11 @@
       <c r="H141" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I141" s="6">
+      <c r="J141" s="6">
         <v>3156103</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>5</v>
       </c>
@@ -5033,11 +5049,11 @@
       <c r="H142" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I142" s="6">
+      <c r="J142" s="6">
         <v>1454258</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5</v>
       </c>
@@ -5062,11 +5078,11 @@
       <c r="H143" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I143" s="6">
+      <c r="J143" s="6">
         <v>1149233</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5</v>
       </c>
@@ -5091,11 +5107,11 @@
       <c r="H144" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I144" s="6">
+      <c r="J144" s="6">
         <v>570346</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>5</v>
       </c>
@@ -5120,11 +5136,11 @@
       <c r="H145" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I145" s="6">
+      <c r="J145" s="6">
         <v>4903090</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>5</v>
       </c>
@@ -5149,11 +5165,11 @@
       <c r="H146" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I146" s="6">
+      <c r="J146" s="6">
         <v>1129329</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5</v>
       </c>
@@ -5178,11 +5194,11 @@
       <c r="H147" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I147" s="6">
+      <c r="J147" s="6">
         <v>1019318</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>5</v>
       </c>
@@ -5207,11 +5223,11 @@
       <c r="H148" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I148" s="6">
+      <c r="J148" s="6">
         <v>4816665</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>6</v>
       </c>
@@ -5236,11 +5252,11 @@
       <c r="H149" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I149" s="6">
+      <c r="J149" s="6">
         <v>2419339</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6</v>
       </c>
@@ -5265,11 +5281,11 @@
       <c r="H150" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I150" s="6">
+      <c r="J150" s="6">
         <v>2089184</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6</v>
       </c>
@@ -5294,11 +5310,11 @@
       <c r="H151" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I151" s="6">
+      <c r="J151" s="6">
         <v>1171158</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6</v>
       </c>
@@ -5323,11 +5339,11 @@
       <c r="H152" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I152" s="6">
+      <c r="J152" s="6">
         <v>671238</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7</v>
       </c>
@@ -5352,11 +5368,11 @@
       <c r="H153" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I153" s="6">
+      <c r="J153" s="6">
         <v>7155174</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>7</v>
       </c>
@@ -5381,11 +5397,11 @@
       <c r="H154" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I154" s="6">
+      <c r="J154" s="6">
         <v>1007444</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>7</v>
       </c>
@@ -5410,11 +5426,11 @@
       <c r="H155" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I155" s="6">
+      <c r="J155" s="6">
         <v>82609</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>7</v>
       </c>
@@ -5439,11 +5455,11 @@
       <c r="H156" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I156" s="6">
+      <c r="J156" s="6">
         <v>3375481</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>7</v>
       </c>
@@ -5468,11 +5484,11 @@
       <c r="H157" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I157" s="6">
+      <c r="J157" s="6">
         <v>64764</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>7</v>
       </c>
@@ -5497,11 +5513,11 @@
       <c r="H158" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I158" s="6">
+      <c r="J158" s="6">
         <v>137128</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>7</v>
       </c>
@@ -5526,11 +5542,11 @@
       <c r="H159" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I159" s="6">
+      <c r="J159" s="6">
         <v>760857</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>8</v>
       </c>
@@ -5555,11 +5571,11 @@
       <c r="H160" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I160" s="6">
+      <c r="J160" s="6">
         <v>4035233</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>8</v>
       </c>
@@ -5584,11 +5600,11 @@
       <c r="H161" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I161" s="6">
+      <c r="J161" s="6">
         <v>8333317</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>8</v>
       </c>
@@ -5613,11 +5629,11 @@
       <c r="H162" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I162" s="6">
+      <c r="J162" s="6">
         <v>1642428</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>8</v>
       </c>
@@ -5642,11 +5658,11 @@
       <c r="H163" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I163" s="6">
+      <c r="J163" s="6">
         <v>938660</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>8</v>
       </c>
@@ -5671,11 +5687,11 @@
       <c r="H164" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I164" s="6">
+      <c r="J164" s="6">
         <v>1946895</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>8</v>
       </c>
@@ -5700,11 +5716,11 @@
       <c r="H165" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I165" s="6">
+      <c r="J165" s="6">
         <v>744347</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>8</v>
       </c>
@@ -5729,11 +5745,11 @@
       <c r="H166" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I166" s="6">
+      <c r="J166" s="6">
         <v>11308201</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>8</v>
       </c>
@@ -5758,11 +5774,11 @@
       <c r="H167" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I167" s="6">
+      <c r="J167" s="6">
         <v>246471</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>8</v>
       </c>
@@ -5787,11 +5803,11 @@
       <c r="H168" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I168" s="6">
+      <c r="J168" s="6">
         <v>6603735</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>8</v>
       </c>
@@ -5816,11 +5832,11 @@
       <c r="H169" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I169" s="6">
+      <c r="J169" s="6">
         <v>3126277</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>8</v>
       </c>
@@ -5845,11 +5861,11 @@
       <c r="H170" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I170" s="6">
+      <c r="J170" s="6">
         <v>2230252</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>8</v>
       </c>
@@ -5874,11 +5890,11 @@
       <c r="H171" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I171" s="6">
+      <c r="J171" s="6">
         <v>2854853</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>8</v>
       </c>
@@ -5903,11 +5919,11 @@
       <c r="H172" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I172" s="6">
+      <c r="J172" s="6">
         <v>764775</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>9</v>
       </c>
@@ -5932,11 +5948,11 @@
       <c r="H173" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I173" s="6">
+      <c r="J173" s="6">
         <v>8148678</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>9</v>
       </c>
@@ -5961,11 +5977,11 @@
       <c r="H174" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I174" s="6" t="s">
+      <c r="J174" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>9</v>
       </c>
@@ -5990,11 +6006,11 @@
       <c r="H175" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I175" s="6">
+      <c r="J175" s="6">
         <v>1702627</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>9</v>
       </c>
@@ -6019,11 +6035,11 @@
       <c r="H176" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I176" s="6" t="s">
+      <c r="J176" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>10</v>
       </c>
@@ -6048,11 +6064,11 @@
       <c r="H177" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I177" s="6">
+      <c r="J177" s="6">
         <v>11143335</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>10</v>
       </c>
@@ -6077,11 +6093,11 @@
       <c r="H178" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I178" s="6">
+      <c r="J178" s="6">
         <v>765891</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>10</v>
       </c>
@@ -6106,11 +6122,11 @@
       <c r="H179" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I179" s="6">
+      <c r="J179" s="6">
         <v>1472411</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>10</v>
       </c>
@@ -6135,11 +6151,11 @@
       <c r="H180" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I180" s="6">
+      <c r="J180" s="6">
         <v>3362957</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>11</v>
       </c>
@@ -6164,11 +6180,11 @@
       <c r="H181" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I181" s="6">
+      <c r="J181" s="6">
         <v>1703883</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>12</v>
       </c>
@@ -6193,11 +6209,11 @@
       <c r="H182" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I182" s="6">
+      <c r="J182" s="6">
         <v>5099723</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>13</v>
       </c>
@@ -6222,11 +6238,11 @@
       <c r="H183" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I183" s="6">
+      <c r="J183" s="6">
         <v>178037</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>13</v>
       </c>
@@ -6251,11 +6267,11 @@
       <c r="H184" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I184" s="6">
+      <c r="J184" s="6">
         <v>3949135</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>13</v>
       </c>
@@ -6280,11 +6296,11 @@
       <c r="H185" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I185" s="6">
+      <c r="J185" s="6">
         <v>715208</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>13</v>
       </c>
@@ -6309,11 +6325,11 @@
       <c r="H186" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I186" s="6">
+      <c r="J186" s="6">
         <v>334268</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>13</v>
       </c>
@@ -6338,11 +6354,11 @@
       <c r="H187" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I187" s="6">
+      <c r="J187" s="6">
         <v>436340</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>13</v>
       </c>
@@ -6367,11 +6383,11 @@
       <c r="H188" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I188" s="6">
+      <c r="J188" s="6">
         <v>1162309</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>13</v>
       </c>
@@ -6396,11 +6412,11 @@
       <c r="H189" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I189" s="6">
+      <c r="J189" s="6">
         <v>2718316</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>13</v>
       </c>
@@ -6425,11 +6441,11 @@
       <c r="H190" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I190" s="6">
+      <c r="J190" s="6">
         <v>154875</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>13</v>
       </c>
@@ -6454,11 +6470,11 @@
       <c r="H191" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I191" s="6">
+      <c r="J191" s="6">
         <v>82882</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>13</v>
       </c>
@@ -6483,11 +6499,11 @@
       <c r="H192" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I192" s="6">
+      <c r="J192" s="6">
         <v>3432801</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>13</v>
       </c>
@@ -6512,11 +6528,11 @@
       <c r="H193" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I193" s="6">
+      <c r="J193" s="6">
         <v>128561</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>13</v>
       </c>
@@ -6541,11 +6557,11 @@
       <c r="H194" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I194" s="6">
+      <c r="J194" s="6">
         <v>562677</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>13</v>
       </c>
@@ -6570,11 +6586,11 @@
       <c r="H195" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I195" s="6">
+      <c r="J195" s="6">
         <v>510909</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>13</v>
       </c>
@@ -6599,11 +6615,11 @@
       <c r="H196" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I196" s="6">
+      <c r="J196" s="6">
         <v>3090179</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>13</v>
       </c>
@@ -6628,11 +6644,11 @@
       <c r="H197" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I197" s="6">
+      <c r="J197" s="6">
         <v>10026989</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>13</v>
       </c>
@@ -6657,11 +6673,11 @@
       <c r="H198" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I198" s="6" t="s">
+      <c r="J198" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>13</v>
       </c>
@@ -6686,11 +6702,11 @@
       <c r="H199" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I199" s="6">
+      <c r="J199" s="6">
         <v>184942</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>13</v>
       </c>
@@ -6715,11 +6731,11 @@
       <c r="H200" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I200" s="6">
+      <c r="J200" s="6">
         <v>343885</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>13</v>
       </c>
@@ -6744,11 +6760,11 @@
       <c r="H201" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I201" s="6">
+      <c r="J201" s="6">
         <v>3489465</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>13</v>
       </c>
@@ -6773,11 +6789,11 @@
       <c r="H202" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I202" s="6">
+      <c r="J202" s="6">
         <v>398456</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>13</v>
       </c>
@@ -6802,11 +6818,11 @@
       <c r="H203" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I203" s="6">
+      <c r="J203" s="6">
         <v>95581</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>13</v>
       </c>
@@ -6831,11 +6847,11 @@
       <c r="H204" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I204" s="6">
+      <c r="J204" s="6">
         <v>943856</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>13</v>
       </c>
@@ -6860,11 +6876,11 @@
       <c r="H205" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I205" s="6">
+      <c r="J205" s="6">
         <v>973283</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>13</v>
       </c>
@@ -6889,11 +6905,11 @@
       <c r="H206" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I206" s="6">
+      <c r="J206" s="6">
         <v>2244422</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>13</v>
       </c>
@@ -6918,11 +6934,11 @@
       <c r="H207" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I207" s="6">
+      <c r="J207" s="6">
         <v>3847053</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>13</v>
       </c>
@@ -6947,11 +6963,11 @@
       <c r="H208" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I208" s="6">
+      <c r="J208" s="6">
         <v>308717</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>13</v>
       </c>
@@ -6976,11 +6992,11 @@
       <c r="H209" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I209" s="6">
+      <c r="J209" s="6">
         <v>522028</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>13</v>
       </c>
@@ -7005,11 +7021,11 @@
       <c r="H210" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I210" s="6">
+      <c r="J210" s="6">
         <v>962351</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>13</v>
       </c>
@@ -7034,11 +7050,11 @@
       <c r="H211" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I211" s="6">
+      <c r="J211" s="6">
         <v>131189</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>13</v>
       </c>
@@ -7063,11 +7079,11 @@
       <c r="H212" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I212" s="6">
+      <c r="J212" s="6">
         <v>249564</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>13</v>
       </c>
@@ -7092,11 +7108,11 @@
       <c r="H213" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I213" s="6">
+      <c r="J213" s="6">
         <v>39601</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>13</v>
       </c>
@@ -7121,11 +7137,11 @@
       <c r="H214" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I214" s="6">
+      <c r="J214" s="6">
         <v>2202458</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>13</v>
       </c>
@@ -7150,11 +7166,11 @@
       <c r="H215" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I215" s="6">
+      <c r="J215" s="6">
         <v>4260014</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>13</v>
       </c>
@@ -7179,11 +7195,11 @@
       <c r="H216" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I216" s="6">
+      <c r="J216" s="6">
         <v>97332</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>13</v>
       </c>
@@ -7208,11 +7224,11 @@
       <c r="H217" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I217" s="6">
+      <c r="J217" s="6">
         <v>1351599</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>13</v>
       </c>
@@ -7237,11 +7253,11 @@
       <c r="H218" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I218" s="6">
+      <c r="J218" s="6">
         <v>12948252</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>13</v>
       </c>
@@ -7266,11 +7282,11 @@
       <c r="H219" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I219" s="6">
+      <c r="J219" s="6">
         <v>2959722</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>13</v>
       </c>
@@ -7295,11 +7311,11 @@
       <c r="H220" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I220" s="6">
+      <c r="J220" s="6">
         <v>924147</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>13</v>
       </c>
@@ -7324,11 +7340,11 @@
       <c r="H221" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I221" s="6">
+      <c r="J221" s="6">
         <v>4674193</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>13</v>
       </c>
@@ -7353,11 +7369,11 @@
       <c r="H222" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I222" s="6">
+      <c r="J222" s="6">
         <v>810687</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>13</v>
       </c>
@@ -7382,11 +7398,11 @@
       <c r="H223" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I223" s="6">
+      <c r="J223" s="6">
         <v>94199</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>13</v>
       </c>
@@ -7411,11 +7427,11 @@
       <c r="H224" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I224" s="6">
+      <c r="J224" s="6">
         <v>203110</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>13</v>
       </c>
@@ -7440,11 +7456,11 @@
       <c r="H225" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I225" s="6">
+      <c r="J225" s="6">
         <v>390090</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>13</v>
       </c>
@@ -7469,11 +7485,11 @@
       <c r="H226" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I226" s="6">
+      <c r="J226" s="6">
         <v>516374</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>13</v>
       </c>
@@ -7498,11 +7514,11 @@
       <c r="H227" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I227" s="6">
+      <c r="J227" s="6">
         <v>307803</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>13</v>
       </c>
@@ -7527,11 +7543,11 @@
       <c r="H228" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I228" s="6">
+      <c r="J228" s="6">
         <v>503931</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>13</v>
       </c>
@@ -7556,11 +7572,11 @@
       <c r="H229" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I229" s="6">
+      <c r="J229" s="6">
         <v>1061633</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>13</v>
       </c>
@@ -7585,11 +7601,11 @@
       <c r="H230" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I230" s="6">
+      <c r="J230" s="6">
         <v>409427</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>14</v>
       </c>
@@ -7614,11 +7630,11 @@
       <c r="H231" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I231" s="6">
+      <c r="J231" s="6">
         <v>4716153</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>15</v>
       </c>
@@ -7643,11 +7659,11 @@
       <c r="H232" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I232" s="6">
+      <c r="J232" s="6">
         <v>9050942</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>16</v>
       </c>
@@ -7672,11 +7688,11 @@
       <c r="H233" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I233" s="6">
+      <c r="J233" s="6">
         <v>2347877</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>16</v>
       </c>
@@ -7701,11 +7717,11 @@
       <c r="H234" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I234" s="6">
+      <c r="J234" s="6">
         <v>819405</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>16</v>
       </c>
@@ -7730,11 +7746,11 @@
       <c r="H235" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I235" s="6">
+      <c r="J235" s="6">
         <v>1152868</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -7759,11 +7775,11 @@
       <c r="H236" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I236" s="6">
+      <c r="J236" s="6">
         <v>12.66</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
@@ -7788,11 +7804,11 @@
       <c r="H237" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I237" s="6">
+      <c r="J237" s="6">
         <v>40.369999999999997</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2</v>
       </c>
@@ -7817,11 +7833,11 @@
       <c r="H238" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I238" s="6">
+      <c r="J238" s="6">
         <v>38.03</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2</v>
       </c>
@@ -7846,11 +7862,11 @@
       <c r="H239" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I239" s="6">
+      <c r="J239" s="6">
         <v>24.31</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>3</v>
       </c>
@@ -7875,11 +7891,11 @@
       <c r="H240" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I240" s="6">
+      <c r="J240" s="6">
         <v>14.01</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>3</v>
       </c>
@@ -7904,11 +7920,11 @@
       <c r="H241" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I241" s="6">
+      <c r="J241" s="6">
         <v>6.55</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>3</v>
       </c>
@@ -7933,11 +7949,11 @@
       <c r="H242" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I242" s="6">
+      <c r="J242" s="6">
         <v>6.29</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>4</v>
       </c>
@@ -7962,11 +7978,11 @@
       <c r="H243" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I243" s="6">
+      <c r="J243" s="6">
         <v>5.41</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>4</v>
       </c>
@@ -7991,11 +8007,11 @@
       <c r="H244" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I244" s="6">
+      <c r="J244" s="6">
         <v>14.05</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>4</v>
       </c>
@@ -8020,11 +8036,11 @@
       <c r="H245" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I245" s="6">
+      <c r="J245" s="6">
         <v>8.56</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>5</v>
       </c>
@@ -8049,11 +8065,11 @@
       <c r="H246" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I246" s="6">
+      <c r="J246" s="6">
         <v>12.27</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>5</v>
       </c>
@@ -8078,11 +8094,11 @@
       <c r="H247" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I247" s="6">
+      <c r="J247" s="6">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>5</v>
       </c>
@@ -8107,11 +8123,11 @@
       <c r="H248" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I248" s="6">
+      <c r="J248" s="6">
         <v>11.32</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>5</v>
       </c>
@@ -8136,11 +8152,11 @@
       <c r="H249" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I249" s="6">
+      <c r="J249" s="6">
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>5</v>
       </c>
@@ -8165,11 +8181,11 @@
       <c r="H250" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I250" s="6">
+      <c r="J250" s="6">
         <v>9.64</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>5</v>
       </c>
@@ -8194,11 +8210,11 @@
       <c r="H251" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I251" s="6">
+      <c r="J251" s="6">
         <v>7.45</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>5</v>
       </c>
@@ -8223,11 +8239,11 @@
       <c r="H252" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I252" s="6">
+      <c r="J252" s="6">
         <v>9.41</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>5</v>
       </c>
@@ -8252,11 +8268,11 @@
       <c r="H253" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I253" s="6">
+      <c r="J253" s="6">
         <v>9.48</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>5</v>
       </c>
@@ -8281,11 +8297,11 @@
       <c r="H254" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I254" s="6">
+      <c r="J254" s="6">
         <v>7.41</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>5</v>
       </c>
@@ -8310,11 +8326,11 @@
       <c r="H255" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I255" s="6">
+      <c r="J255" s="6">
         <v>7.74</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>5</v>
       </c>
@@ -8339,11 +8355,11 @@
       <c r="H256" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I256" s="6">
+      <c r="J256" s="6">
         <v>1.53</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>5</v>
       </c>
@@ -8368,11 +8384,11 @@
       <c r="H257" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I257" s="6">
+      <c r="J257" s="6">
         <v>5.04</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>5</v>
       </c>
@@ -8397,11 +8413,11 @@
       <c r="H258" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I258" s="6">
+      <c r="J258" s="6">
         <v>14.13</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>5</v>
       </c>
@@ -8426,11 +8442,11 @@
       <c r="H259" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I259" s="6">
+      <c r="J259" s="6">
         <v>12.59</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>5</v>
       </c>
@@ -8455,11 +8471,11 @@
       <c r="H260" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I260" s="6">
+      <c r="J260" s="6">
         <v>13.23</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>5</v>
       </c>
@@ -8484,11 +8500,11 @@
       <c r="H261" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I261" s="6">
+      <c r="J261" s="6">
         <v>2.94</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>5</v>
       </c>
@@ -8513,11 +8529,11 @@
       <c r="H262" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I262" s="6">
+      <c r="J262" s="6">
         <v>12.4</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>5</v>
       </c>
@@ -8542,11 +8558,11 @@
       <c r="H263" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I263" s="6">
+      <c r="J263" s="6">
         <v>6.62</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>5</v>
       </c>
@@ -8571,11 +8587,11 @@
       <c r="H264" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I264" s="6">
+      <c r="J264" s="6">
         <v>7.09</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>5</v>
       </c>
@@ -8600,11 +8616,11 @@
       <c r="H265" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I265" s="6">
+      <c r="J265" s="6">
         <v>16.88</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>6</v>
       </c>
@@ -8629,11 +8645,11 @@
       <c r="H266" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I266" s="6">
+      <c r="J266" s="6">
         <v>4.51</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>6</v>
       </c>
@@ -8658,11 +8674,11 @@
       <c r="H267" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I267" s="6">
+      <c r="J267" s="6">
         <v>6.39</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>6</v>
       </c>
@@ -8687,11 +8703,11 @@
       <c r="H268" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I268" s="6">
+      <c r="J268" s="6">
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>6</v>
       </c>
@@ -8716,11 +8732,11 @@
       <c r="H269" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I269" s="6">
+      <c r="J269" s="6">
         <v>3.81</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>7</v>
       </c>
@@ -8745,11 +8761,11 @@
       <c r="H270" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I270" s="6">
+      <c r="J270" s="6">
         <v>13.42</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>7</v>
       </c>
@@ -8774,11 +8790,11 @@
       <c r="H271" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I271" s="6">
+      <c r="J271" s="6">
         <v>7.32</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>7</v>
       </c>
@@ -8803,11 +8819,11 @@
       <c r="H272" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I272" s="6">
+      <c r="J272" s="6">
         <v>0.81</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>7</v>
       </c>
@@ -8832,11 +8848,11 @@
       <c r="H273" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I273" s="6">
+      <c r="J273" s="6">
         <v>8.67</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>7</v>
       </c>
@@ -8861,11 +8877,11 @@
       <c r="H274" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I274" s="6">
+      <c r="J274" s="6">
         <v>1.85</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>7</v>
       </c>
@@ -8890,11 +8906,11 @@
       <c r="H275" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I275" s="6">
+      <c r="J275" s="6">
         <v>5.13</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>7</v>
       </c>
@@ -8919,11 +8935,11 @@
       <c r="H276" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I276" s="6">
+      <c r="J276" s="6">
         <v>3.7</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>8</v>
       </c>
@@ -8948,11 +8964,11 @@
       <c r="H277" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I277" s="6">
+      <c r="J277" s="6">
         <v>9.48</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>8</v>
       </c>
@@ -8977,11 +8993,11 @@
       <c r="H278" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I278" s="6">
+      <c r="J278" s="6">
         <v>20.29</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>8</v>
       </c>
@@ -9006,11 +9022,11 @@
       <c r="H279" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I279" s="6">
+      <c r="J279" s="6">
         <v>8.94</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>8</v>
       </c>
@@ -9035,11 +9051,11 @@
       <c r="H280" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I280" s="6">
+      <c r="J280" s="6">
         <v>9.06</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>8</v>
       </c>
@@ -9064,11 +9080,11 @@
       <c r="H281" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I281" s="6">
+      <c r="J281" s="6">
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>8</v>
       </c>
@@ -9093,11 +9109,11 @@
       <c r="H282" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I282" s="6">
+      <c r="J282" s="6">
         <v>5.39</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>8</v>
       </c>
@@ -9122,11 +9138,11 @@
       <c r="H283" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I283" s="6">
+      <c r="J283" s="6">
         <v>28.21</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>8</v>
       </c>
@@ -9151,11 +9167,11 @@
       <c r="H284" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I284" s="6">
+      <c r="J284" s="6">
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>8</v>
       </c>
@@ -9180,11 +9196,11 @@
       <c r="H285" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I285" s="6">
+      <c r="J285" s="6">
         <v>13.8</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>8</v>
       </c>
@@ -9209,11 +9225,11 @@
       <c r="H286" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I286" s="6">
+      <c r="J286" s="6">
         <v>17.48</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>8</v>
       </c>
@@ -9238,11 +9254,11 @@
       <c r="H287" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I287" s="6">
+      <c r="J287" s="6">
         <v>13.45</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>8</v>
       </c>
@@ -9267,11 +9283,11 @@
       <c r="H288" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I288" s="6">
+      <c r="J288" s="6">
         <v>7.57</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>8</v>
       </c>
@@ -9296,11 +9312,11 @@
       <c r="H289" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I289" s="6">
+      <c r="J289" s="6">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>9</v>
       </c>
@@ -9325,11 +9341,11 @@
       <c r="H290" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I290" s="6">
+      <c r="J290" s="6">
         <v>14.98</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>9</v>
       </c>
@@ -9354,11 +9370,11 @@
       <c r="H291" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I291" s="6" t="s">
+      <c r="J291" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>9</v>
       </c>
@@ -9383,11 +9399,11 @@
       <c r="H292" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I292" s="6">
+      <c r="J292" s="6">
         <v>14.07</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>9</v>
       </c>
@@ -9412,11 +9428,11 @@
       <c r="H293" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I293" s="6" t="s">
+      <c r="J293" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>10</v>
       </c>
@@ -9441,11 +9457,11 @@
       <c r="H294" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I294" s="6">
+      <c r="J294" s="6">
         <v>16.489999999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>10</v>
       </c>
@@ -9470,11 +9486,11 @@
       <c r="H295" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I295" s="6">
+      <c r="J295" s="6">
         <v>10.15</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>10</v>
       </c>
@@ -9499,11 +9515,11 @@
       <c r="H296" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I296" s="6">
+      <c r="J296" s="6">
         <v>10.34</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>10</v>
       </c>
@@ -9528,11 +9544,11 @@
       <c r="H297" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I297" s="6">
+      <c r="J297" s="6">
         <v>10.39</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>11</v>
       </c>
@@ -9557,11 +9573,11 @@
       <c r="H298" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I298" s="6">
+      <c r="J298" s="6">
         <v>12.84</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>12</v>
       </c>
@@ -9586,11 +9602,11 @@
       <c r="H299" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I299" s="6">
+      <c r="J299" s="6">
         <v>13.56</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>13</v>
       </c>
@@ -9615,11 +9631,11 @@
       <c r="H300" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I300" s="6">
+      <c r="J300" s="6">
         <v>0.77</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>13</v>
       </c>
@@ -9644,11 +9660,11 @@
       <c r="H301" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I301" s="6">
+      <c r="J301" s="6">
         <v>23.54</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>13</v>
       </c>
@@ -9673,11 +9689,11 @@
       <c r="H302" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I302" s="6">
+      <c r="J302" s="6">
         <v>6.44</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>13</v>
       </c>
@@ -9702,11 +9718,11 @@
       <c r="H303" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I303" s="6">
+      <c r="J303" s="6">
         <v>3.01</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>13</v>
       </c>
@@ -9731,11 +9747,11 @@
       <c r="H304" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I304" s="6">
+      <c r="J304" s="6">
         <v>3.05</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>13</v>
       </c>
@@ -9760,11 +9776,11 @@
       <c r="H305" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I305" s="6">
+      <c r="J305" s="6">
         <v>8.1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>13</v>
       </c>
@@ -9789,11 +9805,11 @@
       <c r="H306" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I306" s="6">
+      <c r="J306" s="6">
         <v>12.38</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>13</v>
       </c>
@@ -9818,11 +9834,11 @@
       <c r="H307" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I307" s="6">
+      <c r="J307" s="6">
         <v>2.11</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>13</v>
       </c>
@@ -9847,11 +9863,11 @@
       <c r="H308" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I308" s="6">
+      <c r="J308" s="6">
         <v>0.83</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>13</v>
       </c>
@@ -9876,11 +9892,11 @@
       <c r="H309" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I309" s="6">
+      <c r="J309" s="6">
         <v>8.1</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>13</v>
       </c>
@@ -9905,11 +9921,11 @@
       <c r="H310" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I310" s="6">
+      <c r="J310" s="6">
         <v>1.27</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>13</v>
       </c>
@@ -9934,11 +9950,11 @@
       <c r="H311" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I311" s="6">
+      <c r="J311" s="6">
         <v>1.85</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>13</v>
       </c>
@@ -9963,11 +9979,11 @@
       <c r="H312" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I312" s="6">
+      <c r="J312" s="6">
         <v>2.5</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>13</v>
       </c>
@@ -9992,11 +10008,11 @@
       <c r="H313" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I313" s="6">
+      <c r="J313" s="6">
         <v>6.83</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>13</v>
       </c>
@@ -10021,11 +10037,11 @@
       <c r="H314" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I314" s="6">
+      <c r="J314" s="6">
         <v>20.25</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>13</v>
       </c>
@@ -10050,11 +10066,11 @@
       <c r="H315" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I315" s="6" t="s">
+      <c r="J315" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>13</v>
       </c>
@@ -10079,11 +10095,11 @@
       <c r="H316" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I316" s="6">
+      <c r="J316" s="6">
         <v>2.82</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>13</v>
       </c>
@@ -10108,11 +10124,11 @@
       <c r="H317" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I317" s="6">
+      <c r="J317" s="6">
         <v>2.68</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>13</v>
       </c>
@@ -10137,11 +10153,11 @@
       <c r="H318" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I318" s="6">
+      <c r="J318" s="6">
         <v>6.06</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>13</v>
       </c>
@@ -10166,11 +10182,11 @@
       <c r="H319" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I319" s="6">
+      <c r="J319" s="6">
         <v>2.36</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>13</v>
       </c>
@@ -10195,11 +10211,11 @@
       <c r="H320" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I320" s="6">
+      <c r="J320" s="6">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>13</v>
       </c>
@@ -10224,11 +10240,11 @@
       <c r="H321" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I321" s="6">
+      <c r="J321" s="6">
         <v>2.69</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>13</v>
       </c>
@@ -10253,11 +10269,11 @@
       <c r="H322" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I322" s="6">
+      <c r="J322" s="6">
         <v>6.76</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>13</v>
       </c>
@@ -10282,11 +10298,11 @@
       <c r="H323" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I323" s="6">
+      <c r="J323" s="6">
         <v>10.52</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>13</v>
       </c>
@@ -10311,11 +10327,11 @@
       <c r="H324" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I324" s="6">
+      <c r="J324" s="6">
         <v>9.27</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>13</v>
       </c>
@@ -10340,11 +10356,11 @@
       <c r="H325" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I325" s="6">
+      <c r="J325" s="6">
         <v>2.61</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>13</v>
       </c>
@@ -10369,11 +10385,11 @@
       <c r="H326" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I326" s="6">
+      <c r="J326" s="6">
         <v>3.31</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>13</v>
       </c>
@@ -10398,11 +10414,11 @@
       <c r="H327" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I327" s="6">
+      <c r="J327" s="6">
         <v>4.05</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>13</v>
       </c>
@@ -10427,11 +10443,11 @@
       <c r="H328" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I328" s="6">
+      <c r="J328" s="6">
         <v>1.32</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>13</v>
       </c>
@@ -10456,11 +10472,11 @@
       <c r="H329" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I329" s="6">
+      <c r="J329" s="6">
         <v>2.6</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>13</v>
       </c>
@@ -10485,11 +10501,11 @@
       <c r="H330" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I330" s="6">
+      <c r="J330" s="6">
         <v>0.63</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>13</v>
       </c>
@@ -10514,11 +10530,11 @@
       <c r="H331" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I331" s="6">
+      <c r="J331" s="6">
         <v>7.75</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>13</v>
       </c>
@@ -10543,11 +10559,11 @@
       <c r="H332" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I332" s="6">
+      <c r="J332" s="6">
         <v>5.62</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>13</v>
       </c>
@@ -10572,11 +10588,11 @@
       <c r="H333" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I333" s="6">
+      <c r="J333" s="6">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>13</v>
       </c>
@@ -10601,11 +10617,11 @@
       <c r="H334" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I334" s="6">
+      <c r="J334" s="6">
         <v>13.95</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>13</v>
       </c>
@@ -10630,11 +10646,11 @@
       <c r="H335" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I335" s="6">
+      <c r="J335" s="6">
         <v>39.53</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>13</v>
       </c>
@@ -10659,11 +10675,11 @@
       <c r="H336" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I336" s="6">
+      <c r="J336" s="6">
         <v>10.26</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>13</v>
       </c>
@@ -10688,11 +10704,11 @@
       <c r="H337" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I337" s="6">
+      <c r="J337" s="6">
         <v>13.79</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>13</v>
       </c>
@@ -10717,11 +10733,11 @@
       <c r="H338" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I338" s="6">
+      <c r="J338" s="6">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>13</v>
       </c>
@@ -10746,11 +10762,11 @@
       <c r="H339" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I339" s="6">
+      <c r="J339" s="6">
         <v>3.34</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>13</v>
       </c>
@@ -10775,11 +10791,11 @@
       <c r="H340" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I340" s="6">
+      <c r="J340" s="6">
         <v>2.81</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>13</v>
       </c>
@@ -10804,11 +10820,11 @@
       <c r="H341" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I341" s="6">
+      <c r="J341" s="6">
         <v>1.24</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>13</v>
       </c>
@@ -10833,11 +10849,11 @@
       <c r="H342" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I342" s="6">
+      <c r="J342" s="6">
         <v>1.84</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>13</v>
       </c>
@@ -10862,11 +10878,11 @@
       <c r="H343" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I343" s="6">
+      <c r="J343" s="6">
         <v>4.79</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>13</v>
       </c>
@@ -10891,11 +10907,11 @@
       <c r="H344" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I344" s="6">
+      <c r="J344" s="6">
         <v>2.37</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>13</v>
       </c>
@@ -10920,11 +10936,11 @@
       <c r="H345" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I345" s="6">
+      <c r="J345" s="6">
         <v>4.57</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>13</v>
       </c>
@@ -10949,11 +10965,11 @@
       <c r="H346" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I346" s="6">
+      <c r="J346" s="6">
         <v>8.18</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>13</v>
       </c>
@@ -10978,11 +10994,11 @@
       <c r="H347" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I347" s="6">
+      <c r="J347" s="6">
         <v>3.15</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>14</v>
       </c>
@@ -11007,11 +11023,11 @@
       <c r="H348" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I348" s="6">
+      <c r="J348" s="6">
         <v>9.41</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>15</v>
       </c>
@@ -11036,11 +11052,11 @@
       <c r="H349" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I349" s="6">
+      <c r="J349" s="6">
         <v>20.65</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>16</v>
       </c>
@@ -11065,11 +11081,11 @@
       <c r="H350" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I350" s="6">
+      <c r="J350" s="6">
         <v>5.25</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>16</v>
       </c>
@@ -11094,11 +11110,11 @@
       <c r="H351" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I351" s="6">
+      <c r="J351" s="6">
         <v>9.01</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>16</v>
       </c>
@@ -11123,7 +11139,7 @@
       <c r="H352" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I352" s="6">
+      <c r="J352" s="6">
         <v>11.14</v>
       </c>
     </row>
@@ -11140,7 +11156,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Vivienda/28.4.xlsx
+++ b/Vivienda/28.4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01827A46-ABBF-4C59-A1E2-1E3B67F2BC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superficie " sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="155">
   <si>
     <t>Codreg</t>
   </si>
@@ -463,6 +463,9 @@
     <t>Proporción de Sitio Eriazo sobre Superficie Urbana</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID </t>
   </si>
   <si>
@@ -496,7 +499,7 @@
     <t>Este indicador mide el porcentaje que representan los sitios eriazos respecto a superficie total de las áreas urbanas (entendido como el Límite Urbano Censal, LUC). En las ciudades, estos sitios se presentan como una oportunidad de aprovechar eficientemente los espacios para la población (construcción de viviendas sociales, áreas verdes y/o espacios públicos) para crear una ciudad más eficiente con desarrollo urbano. En este análisis, un sitio eriazo es considerado un bien raíz con destino no agrícola y sin construcciones (no edificado), según lo establecido por el Servicio de Impuestos Internos (SII).</t>
   </si>
   <si>
-    <t>c</t>
+    <t>Solo se especifica que la superficie de sitios eriazos esta en %</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +550,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -584,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -597,6 +608,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares [0] 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -956,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J352"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7809,6 +7821,9 @@
       <c r="H236" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I236" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J236" s="3">
         <v>12.66</v>
       </c>
@@ -7838,6 +7853,9 @@
       <c r="H237" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I237" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J237" s="3">
         <v>40.369999999999997</v>
       </c>
@@ -7867,6 +7885,9 @@
       <c r="H238" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I238" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J238" s="3">
         <v>38.03</v>
       </c>
@@ -7896,6 +7917,9 @@
       <c r="H239" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I239" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J239" s="3">
         <v>24.31</v>
       </c>
@@ -7925,6 +7949,9 @@
       <c r="H240" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I240" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J240" s="3">
         <v>14.01</v>
       </c>
@@ -7954,6 +7981,9 @@
       <c r="H241" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I241" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J241" s="3">
         <v>6.55</v>
       </c>
@@ -7982,6 +8012,9 @@
       </c>
       <c r="H242" s="3" t="s">
         <v>141</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="J242" s="3">
         <v>6.29</v>
@@ -8012,6 +8045,9 @@
       <c r="H243" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I243" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J243" s="3">
         <v>5.41</v>
       </c>
@@ -8041,6 +8077,9 @@
       <c r="H244" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I244" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J244" s="3">
         <v>14.05</v>
       </c>
@@ -8070,6 +8109,9 @@
       <c r="H245" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I245" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J245" s="3">
         <v>8.56</v>
       </c>
@@ -8099,6 +8141,9 @@
       <c r="H246" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I246" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J246" s="3">
         <v>12.27</v>
       </c>
@@ -8128,6 +8173,9 @@
       <c r="H247" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I247" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J247" s="3">
         <v>4.5999999999999996</v>
       </c>
@@ -8157,6 +8205,9 @@
       <c r="H248" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I248" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J248" s="3">
         <v>11.32</v>
       </c>
@@ -8186,6 +8237,9 @@
       <c r="H249" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I249" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J249" s="3">
         <v>2.4500000000000002</v>
       </c>
@@ -8215,6 +8269,9 @@
       <c r="H250" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I250" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J250" s="3">
         <v>9.64</v>
       </c>
@@ -8244,6 +8301,9 @@
       <c r="H251" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I251" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J251" s="3">
         <v>7.45</v>
       </c>
@@ -8273,6 +8333,9 @@
       <c r="H252" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I252" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J252" s="3">
         <v>9.41</v>
       </c>
@@ -8302,6 +8365,9 @@
       <c r="H253" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I253" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J253" s="3">
         <v>9.48</v>
       </c>
@@ -8331,6 +8397,9 @@
       <c r="H254" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I254" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J254" s="3">
         <v>7.41</v>
       </c>
@@ -8360,6 +8429,9 @@
       <c r="H255" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I255" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J255" s="3">
         <v>7.74</v>
       </c>
@@ -8389,6 +8461,9 @@
       <c r="H256" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I256" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J256" s="3">
         <v>1.53</v>
       </c>
@@ -8418,6 +8493,9 @@
       <c r="H257" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I257" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J257" s="3">
         <v>5.04</v>
       </c>
@@ -8447,6 +8525,9 @@
       <c r="H258" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I258" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J258" s="3">
         <v>14.13</v>
       </c>
@@ -8476,6 +8557,9 @@
       <c r="H259" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I259" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J259" s="3">
         <v>12.59</v>
       </c>
@@ -8505,6 +8589,9 @@
       <c r="H260" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I260" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J260" s="3">
         <v>13.23</v>
       </c>
@@ -8534,6 +8621,9 @@
       <c r="H261" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I261" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J261" s="3">
         <v>2.94</v>
       </c>
@@ -8563,6 +8653,9 @@
       <c r="H262" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I262" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J262" s="3">
         <v>12.4</v>
       </c>
@@ -8592,6 +8685,9 @@
       <c r="H263" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I263" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J263" s="3">
         <v>6.62</v>
       </c>
@@ -8621,6 +8717,9 @@
       <c r="H264" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I264" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J264" s="3">
         <v>7.09</v>
       </c>
@@ -8650,6 +8749,9 @@
       <c r="H265" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I265" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J265" s="3">
         <v>16.88</v>
       </c>
@@ -8679,6 +8781,9 @@
       <c r="H266" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I266" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J266" s="3">
         <v>4.51</v>
       </c>
@@ -8708,6 +8813,9 @@
       <c r="H267" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I267" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J267" s="3">
         <v>6.39</v>
       </c>
@@ -8737,6 +8845,9 @@
       <c r="H268" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I268" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J268" s="3">
         <v>8.0500000000000007</v>
       </c>
@@ -8766,6 +8877,9 @@
       <c r="H269" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I269" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J269" s="3">
         <v>3.81</v>
       </c>
@@ -8795,6 +8909,9 @@
       <c r="H270" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I270" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J270" s="3">
         <v>13.42</v>
       </c>
@@ -8824,6 +8941,9 @@
       <c r="H271" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I271" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J271" s="3">
         <v>7.32</v>
       </c>
@@ -8853,6 +8973,9 @@
       <c r="H272" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I272" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J272" s="3">
         <v>0.81</v>
       </c>
@@ -8882,6 +9005,9 @@
       <c r="H273" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I273" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J273" s="3">
         <v>8.67</v>
       </c>
@@ -8911,6 +9037,9 @@
       <c r="H274" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I274" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J274" s="3">
         <v>1.85</v>
       </c>
@@ -8940,6 +9069,9 @@
       <c r="H275" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I275" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J275" s="3">
         <v>5.13</v>
       </c>
@@ -8969,6 +9101,9 @@
       <c r="H276" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I276" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J276" s="3">
         <v>3.7</v>
       </c>
@@ -8998,6 +9133,9 @@
       <c r="H277" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I277" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J277" s="3">
         <v>9.48</v>
       </c>
@@ -9027,6 +9165,9 @@
       <c r="H278" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I278" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J278" s="3">
         <v>20.29</v>
       </c>
@@ -9056,6 +9197,9 @@
       <c r="H279" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I279" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J279" s="3">
         <v>8.94</v>
       </c>
@@ -9085,6 +9229,9 @@
       <c r="H280" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I280" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J280" s="3">
         <v>9.06</v>
       </c>
@@ -9114,6 +9261,9 @@
       <c r="H281" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I281" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J281" s="3">
         <v>20.149999999999999</v>
       </c>
@@ -9143,6 +9293,9 @@
       <c r="H282" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I282" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J282" s="3">
         <v>5.39</v>
       </c>
@@ -9172,6 +9325,9 @@
       <c r="H283" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I283" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J283" s="3">
         <v>28.21</v>
       </c>
@@ -9201,6 +9357,9 @@
       <c r="H284" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I284" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J284" s="3">
         <v>4.3600000000000003</v>
       </c>
@@ -9230,6 +9389,9 @@
       <c r="H285" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I285" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J285" s="3">
         <v>13.8</v>
       </c>
@@ -9259,6 +9421,9 @@
       <c r="H286" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I286" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J286" s="3">
         <v>17.48</v>
       </c>
@@ -9288,6 +9453,9 @@
       <c r="H287" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I287" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J287" s="3">
         <v>13.45</v>
       </c>
@@ -9317,6 +9485,9 @@
       <c r="H288" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I288" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J288" s="3">
         <v>7.57</v>
       </c>
@@ -9346,6 +9517,9 @@
       <c r="H289" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I289" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J289" s="3">
         <v>8.3000000000000007</v>
       </c>
@@ -9375,6 +9549,9 @@
       <c r="H290" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I290" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J290" s="3">
         <v>14.98</v>
       </c>
@@ -9404,6 +9581,9 @@
       <c r="H291" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I291" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J291" s="3" t="s">
         <v>140</v>
       </c>
@@ -9433,6 +9613,9 @@
       <c r="H292" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I292" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J292" s="3">
         <v>14.07</v>
       </c>
@@ -9462,6 +9645,9 @@
       <c r="H293" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I293" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J293" s="3" t="s">
         <v>140</v>
       </c>
@@ -9491,6 +9677,9 @@
       <c r="H294" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I294" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J294" s="3">
         <v>16.489999999999998</v>
       </c>
@@ -9520,6 +9709,9 @@
       <c r="H295" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I295" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J295" s="3">
         <v>10.15</v>
       </c>
@@ -9549,6 +9741,9 @@
       <c r="H296" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I296" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J296" s="3">
         <v>10.34</v>
       </c>
@@ -9578,6 +9773,9 @@
       <c r="H297" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I297" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J297" s="3">
         <v>10.39</v>
       </c>
@@ -9607,6 +9805,9 @@
       <c r="H298" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I298" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J298" s="3">
         <v>12.84</v>
       </c>
@@ -9636,6 +9837,9 @@
       <c r="H299" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I299" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J299" s="3">
         <v>13.56</v>
       </c>
@@ -9665,6 +9869,9 @@
       <c r="H300" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I300" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J300" s="3">
         <v>0.77</v>
       </c>
@@ -9694,6 +9901,9 @@
       <c r="H301" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I301" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J301" s="3">
         <v>23.54</v>
       </c>
@@ -9723,6 +9933,9 @@
       <c r="H302" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I302" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J302" s="3">
         <v>6.44</v>
       </c>
@@ -9752,6 +9965,9 @@
       <c r="H303" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I303" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J303" s="3">
         <v>3.01</v>
       </c>
@@ -9781,6 +9997,9 @@
       <c r="H304" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I304" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J304" s="3">
         <v>3.05</v>
       </c>
@@ -9810,6 +10029,9 @@
       <c r="H305" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I305" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J305" s="3">
         <v>8.1</v>
       </c>
@@ -9839,6 +10061,9 @@
       <c r="H306" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I306" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J306" s="3">
         <v>12.38</v>
       </c>
@@ -9868,6 +10093,9 @@
       <c r="H307" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I307" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J307" s="3">
         <v>2.11</v>
       </c>
@@ -9897,6 +10125,9 @@
       <c r="H308" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I308" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J308" s="3">
         <v>0.83</v>
       </c>
@@ -9926,6 +10157,9 @@
       <c r="H309" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I309" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J309" s="3">
         <v>8.1</v>
       </c>
@@ -9955,6 +10189,9 @@
       <c r="H310" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I310" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J310" s="3">
         <v>1.27</v>
       </c>
@@ -9984,6 +10221,9 @@
       <c r="H311" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I311" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J311" s="3">
         <v>1.85</v>
       </c>
@@ -10013,6 +10253,9 @@
       <c r="H312" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I312" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J312" s="3">
         <v>2.5</v>
       </c>
@@ -10042,6 +10285,9 @@
       <c r="H313" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I313" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J313" s="3">
         <v>6.83</v>
       </c>
@@ -10071,6 +10317,9 @@
       <c r="H314" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I314" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J314" s="3">
         <v>20.25</v>
       </c>
@@ -10100,6 +10349,9 @@
       <c r="H315" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I315" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J315" s="3" t="s">
         <v>140</v>
       </c>
@@ -10129,6 +10381,9 @@
       <c r="H316" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I316" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J316" s="3">
         <v>2.82</v>
       </c>
@@ -10158,6 +10413,9 @@
       <c r="H317" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I317" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J317" s="3">
         <v>2.68</v>
       </c>
@@ -10187,6 +10445,9 @@
       <c r="H318" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I318" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J318" s="3">
         <v>6.06</v>
       </c>
@@ -10216,6 +10477,9 @@
       <c r="H319" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I319" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J319" s="3">
         <v>2.36</v>
       </c>
@@ -10245,6 +10509,9 @@
       <c r="H320" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I320" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J320" s="3">
         <v>1.0900000000000001</v>
       </c>
@@ -10274,6 +10541,9 @@
       <c r="H321" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I321" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J321" s="3">
         <v>2.69</v>
       </c>
@@ -10303,6 +10573,9 @@
       <c r="H322" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I322" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J322" s="3">
         <v>6.76</v>
       </c>
@@ -10332,6 +10605,9 @@
       <c r="H323" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I323" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J323" s="3">
         <v>10.52</v>
       </c>
@@ -10361,6 +10637,9 @@
       <c r="H324" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I324" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J324" s="3">
         <v>9.27</v>
       </c>
@@ -10390,6 +10669,9 @@
       <c r="H325" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I325" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J325" s="3">
         <v>2.61</v>
       </c>
@@ -10419,6 +10701,9 @@
       <c r="H326" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I326" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J326" s="3">
         <v>3.31</v>
       </c>
@@ -10448,6 +10733,9 @@
       <c r="H327" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I327" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J327" s="3">
         <v>4.05</v>
       </c>
@@ -10477,6 +10765,9 @@
       <c r="H328" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I328" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J328" s="3">
         <v>1.32</v>
       </c>
@@ -10506,6 +10797,9 @@
       <c r="H329" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I329" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J329" s="3">
         <v>2.6</v>
       </c>
@@ -10535,6 +10829,9 @@
       <c r="H330" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I330" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J330" s="3">
         <v>0.63</v>
       </c>
@@ -10564,6 +10861,9 @@
       <c r="H331" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I331" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J331" s="3">
         <v>7.75</v>
       </c>
@@ -10593,6 +10893,9 @@
       <c r="H332" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I332" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J332" s="3">
         <v>5.62</v>
       </c>
@@ -10622,6 +10925,9 @@
       <c r="H333" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I333" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J333" s="3">
         <v>1.0900000000000001</v>
       </c>
@@ -10651,6 +10957,9 @@
       <c r="H334" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I334" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J334" s="3">
         <v>13.95</v>
       </c>
@@ -10680,6 +10989,9 @@
       <c r="H335" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I335" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J335" s="3">
         <v>39.53</v>
       </c>
@@ -10709,6 +11021,9 @@
       <c r="H336" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I336" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J336" s="3">
         <v>10.26</v>
       </c>
@@ -10738,6 +11053,9 @@
       <c r="H337" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I337" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J337" s="3">
         <v>13.79</v>
       </c>
@@ -10767,6 +11085,9 @@
       <c r="H338" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I338" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J338" s="3">
         <v>8.3000000000000007</v>
       </c>
@@ -10796,6 +11117,9 @@
       <c r="H339" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I339" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J339" s="3">
         <v>3.34</v>
       </c>
@@ -10825,6 +11149,9 @@
       <c r="H340" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I340" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J340" s="3">
         <v>2.81</v>
       </c>
@@ -10854,6 +11181,9 @@
       <c r="H341" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I341" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J341" s="3">
         <v>1.24</v>
       </c>
@@ -10883,6 +11213,9 @@
       <c r="H342" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I342" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J342" s="3">
         <v>1.84</v>
       </c>
@@ -10912,6 +11245,9 @@
       <c r="H343" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I343" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J343" s="3">
         <v>4.79</v>
       </c>
@@ -10941,6 +11277,9 @@
       <c r="H344" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I344" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J344" s="3">
         <v>2.37</v>
       </c>
@@ -10970,6 +11309,9 @@
       <c r="H345" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I345" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J345" s="3">
         <v>4.57</v>
       </c>
@@ -10999,6 +11341,9 @@
       <c r="H346" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I346" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J346" s="3">
         <v>8.18</v>
       </c>
@@ -11027,6 +11372,9 @@
       </c>
       <c r="H347" s="3" t="s">
         <v>141</v>
+      </c>
+      <c r="I347" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="J347" s="3">
         <v>3.15</v>
@@ -11057,6 +11405,9 @@
       <c r="H348" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I348" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J348" s="3">
         <v>9.41</v>
       </c>
@@ -11086,6 +11437,9 @@
       <c r="H349" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I349" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J349" s="3">
         <v>20.65</v>
       </c>
@@ -11115,6 +11469,9 @@
       <c r="H350" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I350" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J350" s="3">
         <v>5.25</v>
       </c>
@@ -11144,6 +11501,9 @@
       <c r="H351" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="I351" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J351" s="3">
         <v>9.01</v>
       </c>
@@ -11172,6 +11532,9 @@
       </c>
       <c r="H352" s="3" t="s">
         <v>141</v>
+      </c>
+      <c r="I352" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="J352" s="3">
         <v>11.14</v>
@@ -11187,9 +11550,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -11199,75 +11562,105 @@
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>144</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>149</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>151</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" ht="409.6">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="409.6">
       <c r="A13" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vivienda/28.4.xlsx
+++ b/Vivienda/28.4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,10 +10,10 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01827A46-ABBF-4C59-A1E2-1E3B67F2BC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Superficie " sheetId="1" r:id="rId1"/>
+    <sheet name="Sitio eriazo" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla auxiliar" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -493,7 +493,7 @@
     <t>http://siedu.ine.cl/descargar/INDICADORES.rar</t>
   </si>
   <si>
-    <t>Definción</t>
+    <t>Definicion</t>
   </si>
   <si>
     <t>Este indicador mide el porcentaje que representan los sitios eriazos respecto a superficie total de las áreas urbanas (entendido como el Límite Urbano Censal, LUC). En las ciudades, estos sitios se presentan como una oportunidad de aprovechar eficientemente los espacios para la población (construcción de viviendas sociales, áreas verdes y/o espacios públicos) para crear una ciudad más eficiente con desarrollo urbano. En este análisis, un sitio eriazo es considerado un bien raíz con destino no agrícola y sin construcciones (no edificado), según lo establecido por el Servicio de Impuestos Internos (SII).</t>
@@ -567,7 +567,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -575,27 +575,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -605,22 +590,34 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares [0] 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <font>
@@ -653,7 +650,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tipo_Superficie_Comuna" displayName="Tipo_Superficie_Comuna" ref="A1:J352" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tipo_Superficie_Comuna" displayName="Tipo_Superficie_Comuna" ref="A1:J352" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:J352" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codreg"/>
@@ -664,7 +661,7 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Año"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ID Tipo de Superficie"/>
     <tableColumn id="9" xr3:uid="{CE529B8C-C9C7-4EF0-96A0-D4A9FE68BE61}" name="Tipo de Superficie"/>
-    <tableColumn id="10" xr3:uid="{5495903A-2D61-4E9C-A8DC-31A6C2393C09}" name="Unidad"/>
+    <tableColumn id="10" xr3:uid="{5495903A-2D61-4E9C-A8DC-31A6C2393C09}" name="Unidad" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Valor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -690,16 +687,6 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A42A53F1-17A4-4A99-A90B-5E80F032AF12}" name="Tabla3" displayName="Tabla3" ref="A12:A13" totalsRowShown="0">
-  <autoFilter ref="A12:A13" xr:uid="{1AF108FD-5BAE-477D-9465-41C03E557EAF}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{336016F3-6A4B-4F4E-B816-FEC44B143559}" name="Definción"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -968,13 +955,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="9" width="11.42578125" style="3"/>
+    <col min="8" max="8" width="11.42578125" style="3"/>
+    <col min="9" max="9" width="11.42578125" style="8"/>
     <col min="10" max="10" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
@@ -1003,7 +991,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -7821,7 +7809,7 @@
       <c r="H236" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I236" s="3" t="s">
+      <c r="I236" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J236" s="3">
@@ -7853,7 +7841,7 @@
       <c r="H237" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I237" s="3" t="s">
+      <c r="I237" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J237" s="3">
@@ -7885,7 +7873,7 @@
       <c r="H238" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I238" s="3" t="s">
+      <c r="I238" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J238" s="3">
@@ -7917,7 +7905,7 @@
       <c r="H239" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I239" s="3" t="s">
+      <c r="I239" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J239" s="3">
@@ -7949,7 +7937,7 @@
       <c r="H240" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I240" s="3" t="s">
+      <c r="I240" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J240" s="3">
@@ -7981,7 +7969,7 @@
       <c r="H241" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I241" s="3" t="s">
+      <c r="I241" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J241" s="3">
@@ -8013,7 +8001,7 @@
       <c r="H242" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I242" s="3" t="s">
+      <c r="I242" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J242" s="3">
@@ -8045,7 +8033,7 @@
       <c r="H243" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I243" s="3" t="s">
+      <c r="I243" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J243" s="3">
@@ -8077,7 +8065,7 @@
       <c r="H244" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I244" s="3" t="s">
+      <c r="I244" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J244" s="3">
@@ -8109,7 +8097,7 @@
       <c r="H245" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I245" s="3" t="s">
+      <c r="I245" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J245" s="3">
@@ -8141,7 +8129,7 @@
       <c r="H246" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I246" s="3" t="s">
+      <c r="I246" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J246" s="3">
@@ -8173,7 +8161,7 @@
       <c r="H247" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I247" s="3" t="s">
+      <c r="I247" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J247" s="3">
@@ -8205,7 +8193,7 @@
       <c r="H248" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I248" s="3" t="s">
+      <c r="I248" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J248" s="3">
@@ -8237,7 +8225,7 @@
       <c r="H249" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I249" s="3" t="s">
+      <c r="I249" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J249" s="3">
@@ -8269,7 +8257,7 @@
       <c r="H250" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I250" s="3" t="s">
+      <c r="I250" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J250" s="3">
@@ -8301,7 +8289,7 @@
       <c r="H251" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I251" s="3" t="s">
+      <c r="I251" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J251" s="3">
@@ -8333,7 +8321,7 @@
       <c r="H252" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I252" s="3" t="s">
+      <c r="I252" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J252" s="3">
@@ -8365,7 +8353,7 @@
       <c r="H253" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I253" s="3" t="s">
+      <c r="I253" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J253" s="3">
@@ -8397,7 +8385,7 @@
       <c r="H254" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I254" s="3" t="s">
+      <c r="I254" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J254" s="3">
@@ -8429,7 +8417,7 @@
       <c r="H255" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I255" s="3" t="s">
+      <c r="I255" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J255" s="3">
@@ -8461,7 +8449,7 @@
       <c r="H256" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I256" s="3" t="s">
+      <c r="I256" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J256" s="3">
@@ -8493,7 +8481,7 @@
       <c r="H257" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I257" s="3" t="s">
+      <c r="I257" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J257" s="3">
@@ -8525,7 +8513,7 @@
       <c r="H258" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I258" s="3" t="s">
+      <c r="I258" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J258" s="3">
@@ -8557,7 +8545,7 @@
       <c r="H259" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I259" s="3" t="s">
+      <c r="I259" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J259" s="3">
@@ -8589,7 +8577,7 @@
       <c r="H260" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I260" s="3" t="s">
+      <c r="I260" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J260" s="3">
@@ -8621,7 +8609,7 @@
       <c r="H261" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I261" s="3" t="s">
+      <c r="I261" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J261" s="3">
@@ -8653,7 +8641,7 @@
       <c r="H262" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I262" s="3" t="s">
+      <c r="I262" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J262" s="3">
@@ -8685,7 +8673,7 @@
       <c r="H263" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I263" s="3" t="s">
+      <c r="I263" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J263" s="3">
@@ -8717,7 +8705,7 @@
       <c r="H264" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I264" s="3" t="s">
+      <c r="I264" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J264" s="3">
@@ -8749,7 +8737,7 @@
       <c r="H265" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I265" s="3" t="s">
+      <c r="I265" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J265" s="3">
@@ -8781,7 +8769,7 @@
       <c r="H266" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I266" s="3" t="s">
+      <c r="I266" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J266" s="3">
@@ -8813,7 +8801,7 @@
       <c r="H267" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I267" s="3" t="s">
+      <c r="I267" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J267" s="3">
@@ -8845,7 +8833,7 @@
       <c r="H268" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I268" s="3" t="s">
+      <c r="I268" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J268" s="3">
@@ -8877,7 +8865,7 @@
       <c r="H269" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I269" s="3" t="s">
+      <c r="I269" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J269" s="3">
@@ -8909,7 +8897,7 @@
       <c r="H270" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I270" s="3" t="s">
+      <c r="I270" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J270" s="3">
@@ -8941,7 +8929,7 @@
       <c r="H271" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I271" s="3" t="s">
+      <c r="I271" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J271" s="3">
@@ -8973,7 +8961,7 @@
       <c r="H272" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I272" s="3" t="s">
+      <c r="I272" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J272" s="3">
@@ -9005,7 +8993,7 @@
       <c r="H273" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I273" s="3" t="s">
+      <c r="I273" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J273" s="3">
@@ -9037,7 +9025,7 @@
       <c r="H274" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I274" s="3" t="s">
+      <c r="I274" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J274" s="3">
@@ -9069,7 +9057,7 @@
       <c r="H275" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I275" s="3" t="s">
+      <c r="I275" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J275" s="3">
@@ -9101,7 +9089,7 @@
       <c r="H276" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I276" s="3" t="s">
+      <c r="I276" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J276" s="3">
@@ -9133,7 +9121,7 @@
       <c r="H277" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I277" s="3" t="s">
+      <c r="I277" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J277" s="3">
@@ -9165,7 +9153,7 @@
       <c r="H278" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I278" s="3" t="s">
+      <c r="I278" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J278" s="3">
@@ -9197,7 +9185,7 @@
       <c r="H279" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I279" s="3" t="s">
+      <c r="I279" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J279" s="3">
@@ -9229,7 +9217,7 @@
       <c r="H280" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I280" s="3" t="s">
+      <c r="I280" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J280" s="3">
@@ -9261,7 +9249,7 @@
       <c r="H281" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I281" s="3" t="s">
+      <c r="I281" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J281" s="3">
@@ -9293,7 +9281,7 @@
       <c r="H282" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I282" s="3" t="s">
+      <c r="I282" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J282" s="3">
@@ -9325,7 +9313,7 @@
       <c r="H283" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I283" s="3" t="s">
+      <c r="I283" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J283" s="3">
@@ -9357,7 +9345,7 @@
       <c r="H284" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I284" s="3" t="s">
+      <c r="I284" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J284" s="3">
@@ -9389,7 +9377,7 @@
       <c r="H285" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I285" s="3" t="s">
+      <c r="I285" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J285" s="3">
@@ -9421,7 +9409,7 @@
       <c r="H286" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I286" s="3" t="s">
+      <c r="I286" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J286" s="3">
@@ -9453,7 +9441,7 @@
       <c r="H287" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I287" s="3" t="s">
+      <c r="I287" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J287" s="3">
@@ -9485,7 +9473,7 @@
       <c r="H288" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I288" s="3" t="s">
+      <c r="I288" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J288" s="3">
@@ -9517,7 +9505,7 @@
       <c r="H289" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I289" s="3" t="s">
+      <c r="I289" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J289" s="3">
@@ -9549,7 +9537,7 @@
       <c r="H290" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I290" s="3" t="s">
+      <c r="I290" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J290" s="3">
@@ -9581,7 +9569,7 @@
       <c r="H291" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I291" s="3" t="s">
+      <c r="I291" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J291" s="3" t="s">
@@ -9613,7 +9601,7 @@
       <c r="H292" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I292" s="3" t="s">
+      <c r="I292" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J292" s="3">
@@ -9645,7 +9633,7 @@
       <c r="H293" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I293" s="3" t="s">
+      <c r="I293" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J293" s="3" t="s">
@@ -9677,7 +9665,7 @@
       <c r="H294" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I294" s="3" t="s">
+      <c r="I294" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J294" s="3">
@@ -9709,7 +9697,7 @@
       <c r="H295" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I295" s="3" t="s">
+      <c r="I295" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J295" s="3">
@@ -9741,7 +9729,7 @@
       <c r="H296" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I296" s="3" t="s">
+      <c r="I296" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J296" s="3">
@@ -9773,7 +9761,7 @@
       <c r="H297" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I297" s="3" t="s">
+      <c r="I297" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J297" s="3">
@@ -9805,7 +9793,7 @@
       <c r="H298" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I298" s="3" t="s">
+      <c r="I298" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J298" s="3">
@@ -9837,7 +9825,7 @@
       <c r="H299" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I299" s="3" t="s">
+      <c r="I299" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J299" s="3">
@@ -9869,7 +9857,7 @@
       <c r="H300" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I300" s="3" t="s">
+      <c r="I300" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J300" s="3">
@@ -9901,7 +9889,7 @@
       <c r="H301" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I301" s="3" t="s">
+      <c r="I301" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J301" s="3">
@@ -9933,7 +9921,7 @@
       <c r="H302" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I302" s="3" t="s">
+      <c r="I302" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J302" s="3">
@@ -9965,7 +9953,7 @@
       <c r="H303" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I303" s="3" t="s">
+      <c r="I303" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J303" s="3">
@@ -9997,7 +9985,7 @@
       <c r="H304" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I304" s="3" t="s">
+      <c r="I304" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J304" s="3">
@@ -10029,7 +10017,7 @@
       <c r="H305" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I305" s="3" t="s">
+      <c r="I305" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J305" s="3">
@@ -10061,7 +10049,7 @@
       <c r="H306" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I306" s="3" t="s">
+      <c r="I306" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J306" s="3">
@@ -10093,7 +10081,7 @@
       <c r="H307" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I307" s="3" t="s">
+      <c r="I307" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J307" s="3">
@@ -10125,7 +10113,7 @@
       <c r="H308" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I308" s="3" t="s">
+      <c r="I308" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J308" s="3">
@@ -10157,7 +10145,7 @@
       <c r="H309" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I309" s="3" t="s">
+      <c r="I309" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J309" s="3">
@@ -10189,7 +10177,7 @@
       <c r="H310" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I310" s="3" t="s">
+      <c r="I310" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J310" s="3">
@@ -10221,7 +10209,7 @@
       <c r="H311" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I311" s="3" t="s">
+      <c r="I311" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J311" s="3">
@@ -10253,7 +10241,7 @@
       <c r="H312" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I312" s="3" t="s">
+      <c r="I312" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J312" s="3">
@@ -10285,7 +10273,7 @@
       <c r="H313" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I313" s="3" t="s">
+      <c r="I313" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J313" s="3">
@@ -10317,7 +10305,7 @@
       <c r="H314" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I314" s="3" t="s">
+      <c r="I314" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J314" s="3">
@@ -10349,7 +10337,7 @@
       <c r="H315" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I315" s="3" t="s">
+      <c r="I315" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J315" s="3" t="s">
@@ -10381,7 +10369,7 @@
       <c r="H316" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I316" s="3" t="s">
+      <c r="I316" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J316" s="3">
@@ -10413,7 +10401,7 @@
       <c r="H317" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I317" s="3" t="s">
+      <c r="I317" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J317" s="3">
@@ -10445,7 +10433,7 @@
       <c r="H318" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I318" s="3" t="s">
+      <c r="I318" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J318" s="3">
@@ -10477,7 +10465,7 @@
       <c r="H319" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I319" s="3" t="s">
+      <c r="I319" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J319" s="3">
@@ -10509,7 +10497,7 @@
       <c r="H320" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I320" s="3" t="s">
+      <c r="I320" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J320" s="3">
@@ -10541,7 +10529,7 @@
       <c r="H321" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I321" s="3" t="s">
+      <c r="I321" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J321" s="3">
@@ -10573,7 +10561,7 @@
       <c r="H322" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I322" s="3" t="s">
+      <c r="I322" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J322" s="3">
@@ -10605,7 +10593,7 @@
       <c r="H323" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I323" s="3" t="s">
+      <c r="I323" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J323" s="3">
@@ -10637,7 +10625,7 @@
       <c r="H324" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I324" s="3" t="s">
+      <c r="I324" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J324" s="3">
@@ -10669,7 +10657,7 @@
       <c r="H325" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I325" s="3" t="s">
+      <c r="I325" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J325" s="3">
@@ -10701,7 +10689,7 @@
       <c r="H326" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I326" s="3" t="s">
+      <c r="I326" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J326" s="3">
@@ -10733,7 +10721,7 @@
       <c r="H327" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I327" s="3" t="s">
+      <c r="I327" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J327" s="3">
@@ -10765,7 +10753,7 @@
       <c r="H328" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I328" s="3" t="s">
+      <c r="I328" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J328" s="3">
@@ -10797,7 +10785,7 @@
       <c r="H329" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I329" s="3" t="s">
+      <c r="I329" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J329" s="3">
@@ -10829,7 +10817,7 @@
       <c r="H330" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I330" s="3" t="s">
+      <c r="I330" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J330" s="3">
@@ -10861,7 +10849,7 @@
       <c r="H331" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I331" s="3" t="s">
+      <c r="I331" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J331" s="3">
@@ -10893,7 +10881,7 @@
       <c r="H332" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I332" s="3" t="s">
+      <c r="I332" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J332" s="3">
@@ -10925,7 +10913,7 @@
       <c r="H333" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I333" s="3" t="s">
+      <c r="I333" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J333" s="3">
@@ -10957,7 +10945,7 @@
       <c r="H334" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I334" s="3" t="s">
+      <c r="I334" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J334" s="3">
@@ -10989,7 +10977,7 @@
       <c r="H335" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I335" s="3" t="s">
+      <c r="I335" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J335" s="3">
@@ -11021,7 +11009,7 @@
       <c r="H336" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I336" s="3" t="s">
+      <c r="I336" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J336" s="3">
@@ -11053,7 +11041,7 @@
       <c r="H337" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I337" s="3" t="s">
+      <c r="I337" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J337" s="3">
@@ -11085,7 +11073,7 @@
       <c r="H338" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I338" s="3" t="s">
+      <c r="I338" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J338" s="3">
@@ -11117,7 +11105,7 @@
       <c r="H339" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I339" s="3" t="s">
+      <c r="I339" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J339" s="3">
@@ -11149,7 +11137,7 @@
       <c r="H340" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I340" s="3" t="s">
+      <c r="I340" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J340" s="3">
@@ -11181,7 +11169,7 @@
       <c r="H341" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I341" s="3" t="s">
+      <c r="I341" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J341" s="3">
@@ -11213,7 +11201,7 @@
       <c r="H342" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I342" s="3" t="s">
+      <c r="I342" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J342" s="3">
@@ -11245,7 +11233,7 @@
       <c r="H343" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I343" s="3" t="s">
+      <c r="I343" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J343" s="3">
@@ -11277,7 +11265,7 @@
       <c r="H344" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I344" s="3" t="s">
+      <c r="I344" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J344" s="3">
@@ -11309,7 +11297,7 @@
       <c r="H345" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I345" s="3" t="s">
+      <c r="I345" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J345" s="3">
@@ -11341,7 +11329,7 @@
       <c r="H346" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I346" s="3" t="s">
+      <c r="I346" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J346" s="3">
@@ -11373,7 +11361,7 @@
       <c r="H347" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I347" s="3" t="s">
+      <c r="I347" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J347" s="3">
@@ -11405,7 +11393,7 @@
       <c r="H348" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I348" s="3" t="s">
+      <c r="I348" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J348" s="3">
@@ -11437,7 +11425,7 @@
       <c r="H349" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I349" s="3" t="s">
+      <c r="I349" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J349" s="3">
@@ -11469,7 +11457,7 @@
       <c r="H350" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I350" s="3" t="s">
+      <c r="I350" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J350" s="3">
@@ -11501,7 +11489,7 @@
       <c r="H351" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I351" s="3" t="s">
+      <c r="I351" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J351" s="3">
@@ -11533,7 +11521,7 @@
       <c r="H352" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I352" s="3" t="s">
+      <c r="I352" s="8" t="s">
         <v>142</v>
       </c>
       <c r="J352" s="3">
@@ -11550,10 +11538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -11562,7 +11550,7 @@
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>143</v>
       </c>
@@ -11572,8 +11560,12 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>145</v>
       </c>
@@ -11583,8 +11575,12 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>146</v>
       </c>
@@ -11594,8 +11590,12 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
@@ -11605,8 +11605,12 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>148</v>
       </c>
@@ -11616,8 +11620,12 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>150</v>
       </c>
@@ -11627,48 +11635,92 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="126.75" customHeight="1">
+      <c r="A11" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B11" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="409.6">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:F11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>